--- a/jor/结果jsp6_1.xlsx
+++ b/jor/结果jsp6_1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>ITS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,10 @@
     <t>时间/s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -98,12 +102,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -112,11 +131,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -150,7 +172,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13293406980843817"/>
+          <c:y val="4.8325722983257227E-2"/>
+          <c:w val="0.83398542719473512"/>
+          <c:h val="0.74931601833352912"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -169,9 +201,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -826,10 +858,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1488,17 +1521,14 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1529,6 +1559,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="10"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -1542,10 +1573,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1553,13 +1581,15 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1596,8 +1626,8 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
+      <c:legendPos val="tr"/>
+      <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1636,10 +1666,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="bg1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -2224,16 +2251,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>102640</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>89940</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2244,7 +2271,9 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2265,12 +2294,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.06167</cdr:x>
-      <cdr:y>0.86944</cdr:y>
+      <cdr:x>0.43846</cdr:x>
+      <cdr:y>0.87463</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.24167</cdr:x>
-      <cdr:y>0.96111</cdr:y>
+      <cdr:x>0.61846</cdr:x>
+      <cdr:y>0.96418</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2285,8 +2314,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="281940" y="2385060"/>
-          <a:ext cx="822960" cy="251460"/>
+          <a:off x="1865424" y="2232660"/>
+          <a:ext cx="765810" cy="228600"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2316,8 +2345,8 @@
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
-            <a:t>迭代次数</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000"/>
+            <a:t>Iteration</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" sz="1000"/>
         </a:p>
@@ -2326,12 +2355,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.05944</cdr:x>
-      <cdr:y>0.00185</cdr:y>
+      <cdr:x>0.0117</cdr:x>
+      <cdr:y>0.27256</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.18667</cdr:x>
-      <cdr:y>0.12222</cdr:y>
+      <cdr:x>0.06901</cdr:x>
+      <cdr:y>0.55671</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2345,9 +2374,9 @@
         <cdr:cNvSpPr/>
       </cdr:nvSpPr>
       <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="271760" y="5075"/>
-          <a:ext cx="581680" cy="330205"/>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000">
+          <a:off x="-190998" y="936519"/>
+          <a:ext cx="725364" cy="243838"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2468,12 +2497,8 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
-            <a:t>时间</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
-            <a:t>/min</a:t>
+            <a:t>Makespan</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" sz="900"/>
         </a:p>
@@ -2783,7 +2808,7 @@
   <dimension ref="A1:O150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3021,12 +3046,6 @@
       <c r="F19" t="s">
         <v>3</v>
       </c>
-      <c r="K19" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -3045,13 +3064,16 @@
       <c r="F20" s="1">
         <v>2.8410000000000002</v>
       </c>
-      <c r="J20" t="s">
+      <c r="I20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="M20" t="s">
@@ -3075,23 +3097,17 @@
         <v>147</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="J21">
-        <v>140</v>
-      </c>
-      <c r="K21">
+      <c r="I21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="2">
+        <v>140</v>
+      </c>
+      <c r="K21" s="2">
         <v>0.93200000000000005</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="2">
         <v>9</v>
-      </c>
-      <c r="M21">
-        <v>140</v>
-      </c>
-      <c r="N21">
-        <v>2.8410000000000002</v>
-      </c>
-      <c r="O21">
-        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -3105,6 +3121,18 @@
         <v>147</v>
       </c>
       <c r="D22" s="1"/>
+      <c r="I22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="2">
+        <v>140</v>
+      </c>
+      <c r="K22" s="2">
+        <v>2.8410000000000002</v>
+      </c>
+      <c r="L22" s="2">
+        <v>52</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -4357,6 +4385,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>